--- a/Inputs/BUPA_Bins_Africa/info.xlsx
+++ b/Inputs/BUPA_Bins_Africa/info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t xml:space="preserve">provider</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">multiCurrency</t>
   </si>
   <si>
+    <t xml:space="preserve">copayTypes</t>
+  </si>
+  <si>
     <t xml:space="preserve">BUPA_Bins_Africa</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">benefits/deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP/OP</t>
   </si>
 </sst>
 </file>
@@ -249,13 +255,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.11"/>
@@ -294,34 +300,40 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
